--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3499.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3499.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9116074455706116</v>
+        <v>2.954100608825684</v>
       </c>
       <c r="B1">
-        <v>1.820464808628899</v>
+        <v>3.184989929199219</v>
       </c>
       <c r="C1">
-        <v>6.493612903310155</v>
+        <v>2.812205791473389</v>
       </c>
       <c r="D1">
-        <v>3.824315532179675</v>
+        <v>2.516140222549438</v>
       </c>
       <c r="E1">
-        <v>1.70149569370955</v>
+        <v>1.731523394584656</v>
       </c>
     </row>
   </sheetData>
